--- a/src/lib/ASC_dynamic_template.xlsx
+++ b/src/lib/ASC_dynamic_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tim.kershaw\oflog-automated-text\src\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF23FCBA-E8C6-4158-A83A-C44CE9C0E56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725BDA7-5AF6-4FFF-90EE-3186635F3A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14505" xr2:uid="{D19ADD91-E08A-4880-A6B4-AC16BCE7FEC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="39">
   <si>
     <t>topic</t>
   </si>
@@ -114,6 +114,45 @@
   </si>
   <si>
     <t>ASC4</t>
+  </si>
+  <si>
+    <t>remainained about the same</t>
+  </si>
+  <si>
+    <t>become slighly easier</t>
+  </si>
+  <si>
+    <t>become easier</t>
+  </si>
+  <si>
+    <t>become a lot easier</t>
+  </si>
+  <si>
+    <t>become slightly harder</t>
+  </si>
+  <si>
+    <t>become harder</t>
+  </si>
+  <si>
+    <t>become a lot harder</t>
+  </si>
+  <si>
+    <t>become a lot better</t>
+  </si>
+  <si>
+    <t>become better</t>
+  </si>
+  <si>
+    <t>become slighly better</t>
+  </si>
+  <si>
+    <t>become slightly worse</t>
+  </si>
+  <si>
+    <t>become worse</t>
+  </si>
+  <si>
+    <t>become a lot worse</t>
   </si>
 </sst>
 </file>
@@ -497,11 +536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0000E9-2B9C-48FF-98BB-322E6A2B8C83}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -907,7 +950,7 @@
         <v>7.5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -940,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -973,7 +1016,7 @@
         <v>1.5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1006,7 +1049,7 @@
         <v>0.5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1039,7 +1082,7 @@
         <v>-0.5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,7 +1115,7 @@
         <v>-1.5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,7 +1148,7 @@
         <v>-3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,7 +1865,7 @@
         <v>7.5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1888,7 +1931,7 @@
         <v>1.5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1921,7 +1964,7 @@
         <v>0.5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1954,7 +1997,7 @@
         <v>-0.5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1987,7 +2030,7 @@
         <v>-1.5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,7 +2063,7 @@
         <v>-3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">

--- a/src/lib/ASC_dynamic_template.xlsx
+++ b/src/lib/ASC_dynamic_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tim.kershaw\oflog-automated-text\src\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725BDA7-5AF6-4FFF-90EE-3186635F3A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C4727-1618-4632-94D0-483021F07EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14505" xr2:uid="{D19ADD91-E08A-4880-A6B4-AC16BCE7FEC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="40">
   <si>
     <t>topic</t>
   </si>
@@ -83,9 +83,6 @@
     <t>[Manually written]</t>
   </si>
   <si>
-    <t>earliestValue</t>
-  </si>
-  <si>
     <t>penultimateValue</t>
   </si>
   <si>
@@ -116,50 +113,140 @@
     <t>ASC4</t>
   </si>
   <si>
-    <t>remainained about the same</t>
-  </si>
-  <si>
-    <t>become slighly easier</t>
-  </si>
-  <si>
-    <t>become easier</t>
-  </si>
-  <si>
-    <t>become a lot easier</t>
-  </si>
-  <si>
-    <t>become slightly harder</t>
-  </si>
-  <si>
-    <t>become harder</t>
-  </si>
-  <si>
-    <t>become a lot harder</t>
-  </si>
-  <si>
-    <t>become a lot better</t>
-  </si>
-  <si>
-    <t>become better</t>
-  </si>
-  <si>
-    <t>become slighly better</t>
-  </si>
-  <si>
-    <t>become slightly worse</t>
-  </si>
-  <si>
-    <t>become worse</t>
-  </si>
-  <si>
-    <t>become a lot worse</t>
+    <t xml:space="preserve">The latest survey results from |^ASC1_latestYear| show that unpaid carers in |$place| rated their quality of life at |@ASC1_value| out of 12.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|$ASC1_1|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> |$place|’s comparison group, where on average carers gave their quality of life a score of |@ASC1_nnMedian| out of 12.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|$ASC1_2|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> than the average for England (|^ASC1_englandMedian|).</t>
+    </r>
+  </si>
+  <si>
+    <t>about the same as</t>
+  </si>
+  <si>
+    <t>a lot easier to find information than</t>
+  </si>
+  <si>
+    <t>easier to find information than</t>
+  </si>
+  <si>
+    <t>slightly easier to find information than</t>
+  </si>
+  <si>
+    <t>slightly harder to find information than</t>
+  </si>
+  <si>
+    <t>harder to find information than</t>
+  </si>
+  <si>
+    <t>a lot harder to find information than</t>
+  </si>
+  <si>
+    <t>england_median</t>
+  </si>
+  <si>
+    <t>The latest survey results from |^ASC4_latestYear| show that |@ASC4_value|% of unpaid carers in |$place| found it easy to get the information they need about council support.</t>
+  </si>
+  <si>
+    <t>about as easy as as</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> It is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">|$ASC4_2| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>the average for England (|^ASC4_englandMedian|%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>|$ASC4_1|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> |$place|’s comparison group, where |@ASC4_nnMedian|% of unpaid carers said it was easy. It is |$ASC4_2| than the average for England (|^ASC4_englandMedian|%).</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +257,26 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -194,12 +301,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,14 +642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0000E9-2B9C-48FF-98BB-322E6A2B8C83}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
@@ -557,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -579,70 +688,32 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>_xlfn.CONCAT(C2,"_",B2)</f>
-        <v>ASC1_1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D10" si="0">_xlfn.CONCAT(C3,"_",B3)</f>
-        <v>ASC1_1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -655,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C4,"_",B4)</f>
         <v>ASC1_1</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -667,14 +738,14 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2">
-        <v>1.5</v>
+      <c r="H4" s="1">
+        <v>7.5</v>
       </c>
       <c r="I4" s="2">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D12" si="0">_xlfn.CONCAT(C5,"_",B5)</f>
         <v>ASC1_1</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -701,13 +772,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1.5</v>
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -734,13 +805,13 @@
         <v>13</v>
       </c>
       <c r="H6" s="2">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -767,13 +838,13 @@
         <v>13</v>
       </c>
       <c r="H7" s="2">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="2">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -800,13 +871,13 @@
         <v>13</v>
       </c>
       <c r="H8" s="2">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="I8" s="2">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -833,13 +904,13 @@
         <v>13</v>
       </c>
       <c r="H9" s="2">
-        <v>-7.5</v>
+        <v>-1.5</v>
       </c>
       <c r="I9" s="2">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -866,40 +937,61 @@
         <v>13</v>
       </c>
       <c r="H10" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I10" s="1">
+        <v>-3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ASC1_1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
         <v>-7.5</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>_xlfn.CONCAT(C12,"_",B12)</f>
-        <v>ASC1_2</v>
+        <f t="shared" si="0"/>
+        <v>ASC1_1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -908,83 +1000,43 @@
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1000</v>
+        <v>13</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-1000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-7.5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" ref="D13:D20" si="1">_xlfn.CONCAT(C13,"_",B13)</f>
-        <v>ASC1_2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ASC1_2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -997,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT(C15,"_",B15)</f>
         <v>ASC1_2</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1007,16 +1059,16 @@
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.5</v>
+        <v>35</v>
+      </c>
+      <c r="H15" s="1">
+        <v>7.5</v>
       </c>
       <c r="I15" s="2">
-        <v>1.5</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1030,7 +1082,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D16:D23" si="1">_xlfn.CONCAT(C16,"_",B16)</f>
         <v>ASC1_2</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1040,16 +1092,16 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H16" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,16 +1125,16 @@
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="I17" s="2">
-        <v>-0.5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1106,16 +1158,16 @@
         <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H18" s="2">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="2">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,16 +1191,16 @@
         <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H19" s="2">
-        <v>-7.5</v>
+        <v>-0.5</v>
       </c>
       <c r="I19" s="2">
-        <v>-3</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1172,43 +1224,64 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-7.5</v>
+        <v>-1.5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-0.5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ASC1_2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>_xlfn.CONCAT(C22,"_",B22)</f>
-        <v>ASC1_3</v>
+        <f t="shared" si="1"/>
+        <v>ASC1_2</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>11</v>
@@ -1217,16 +1290,16 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1">
-        <v>7.5</v>
+        <v>35</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-7.5</v>
       </c>
       <c r="I22" s="2">
-        <v>1000</v>
+        <v>-3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,14 +1307,14 @@
         <v>9</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" ref="D23:D30" si="2">_xlfn.CONCAT(C23,"_",B23)</f>
-        <v>ASC1_3</v>
+        <f t="shared" si="1"/>
+        <v>ASC1_2</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>11</v>
@@ -1250,130 +1323,71 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H23" s="2">
-        <v>3</v>
+        <v>-1000</v>
       </c>
       <c r="I23" s="1">
-        <v>7.5</v>
+        <v>-7.5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ASC1_3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>3</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ASC1_3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ASC1_3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ASC1_3</v>
+        <f>_xlfn.CONCAT(C27,"_",B27)</f>
+        <v>ASC4_1</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>11</v>
@@ -1382,16 +1396,16 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="2">
-        <v>-1.5</v>
+        <v>13</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7.5</v>
       </c>
       <c r="I27" s="2">
-        <v>-0.5</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1399,32 +1413,32 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" ref="D28:D35" si="2">_xlfn.CONCAT(C28,"_",B28)</f>
+        <v>ASC4_1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2">
         <v>3</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>ASC1_3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="2">
-        <v>-3</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-1.5</v>
+      <c r="I28" s="1">
+        <v>7.5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1432,14 +1446,14 @@
         <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ASC1_3</v>
+        <v>ASC4_1</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>
@@ -1448,16 +1462,16 @@
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" s="2">
-        <v>-7.5</v>
+        <v>1.5</v>
       </c>
       <c r="I29" s="2">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,14 +1479,14 @@
         <v>9</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>ASC1_3</v>
+        <v>ASC4_1</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
@@ -1481,16 +1495,49 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I30" s="1">
-        <v>-7.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1.5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>ASC4_1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1501,10 +1548,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>_xlfn.CONCAT(C32,"_",B32)</f>
+        <f t="shared" si="2"/>
         <v>ASC4_1</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -1516,14 +1563,14 @@
       <c r="G32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="1">
-        <v>7.5</v>
+      <c r="H32" s="2">
+        <v>-1.5</v>
       </c>
       <c r="I32" s="2">
-        <v>1000</v>
+        <v>-0.5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f t="shared" ref="D33:D40" si="3">_xlfn.CONCAT(C33,"_",B33)</f>
+        <f t="shared" si="2"/>
         <v>ASC4_1</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1550,13 +1597,13 @@
         <v>13</v>
       </c>
       <c r="H33" s="2">
-        <v>3</v>
-      </c>
-      <c r="I33" s="1">
-        <v>7.5</v>
+        <v>-3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>-1.5</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1567,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>ASC4_1</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -1583,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="H34" s="2">
-        <v>1.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I34" s="2">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>ASC4_1</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -1616,94 +1663,54 @@
         <v>13</v>
       </c>
       <c r="H35" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1.5</v>
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-7.5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ASC4_1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ASC4_1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="I37" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ASC4_1</v>
+        <f>_xlfn.CONCAT(C38,"_",B38)</f>
+        <v>ASC4_2</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
@@ -1712,16 +1719,16 @@
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="2">
-        <v>-3</v>
+        <v>35</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7.5</v>
       </c>
       <c r="I38" s="2">
-        <v>-1.5</v>
+        <v>1000</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,14 +1736,14 @@
         <v>9</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>ASC4_1</v>
+        <f t="shared" ref="D39:D46" si="3">_xlfn.CONCAT(C39,"_",B39)</f>
+        <v>ASC4_2</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>11</v>
@@ -1745,16 +1752,16 @@
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H39" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="I39" s="2">
-        <v>-3</v>
+        <v>3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>7.5</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,14 +1769,14 @@
         <v>9</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ASC4_1</v>
+        <v>ASC4_2</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
@@ -1778,29 +1785,50 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H40" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I40" s="1">
-        <v>-7.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ASC4_2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1810,10 +1838,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>_xlfn.CONCAT(C42,"_",B42)</f>
+        <f t="shared" si="3"/>
         <v>ASC4_2</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -1823,16 +1851,16 @@
         <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="1">
-        <v>7.5</v>
+        <v>35</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-0.5</v>
       </c>
       <c r="I42" s="2">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f t="shared" ref="D43:D50" si="4">_xlfn.CONCAT(C43,"_",B43)</f>
+        <f t="shared" si="3"/>
         <v>ASC4_2</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -1856,16 +1884,16 @@
         <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H43" s="2">
-        <v>3</v>
-      </c>
-      <c r="I43" s="1">
-        <v>7.5</v>
+        <v>-1.5</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-0.5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1876,10 +1904,10 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>ASC4_2</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1889,16 +1917,16 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H44" s="2">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="I44" s="2">
-        <v>3</v>
+        <v>-1.5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1909,10 +1937,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>ASC4_2</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -1922,16 +1950,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H45" s="2">
-        <v>0.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I45" s="2">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1942,10 +1970,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>ASC4_2</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -1955,64 +1983,43 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H46" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.5</v>
+        <v>-1000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-7.5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ASC4_2</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="I47" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ASC4_2</v>
+        <f>_xlfn.CONCAT(C48,"_",B48)</f>
+        <v>ASC4_3</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
@@ -2023,14 +2030,14 @@
       <c r="G48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="2">
-        <v>-3</v>
+      <c r="H48" s="1">
+        <v>7.5</v>
       </c>
       <c r="I48" s="2">
-        <v>-1.5</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,14 +2045,14 @@
         <v>9</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>ASC4_2</v>
+        <f t="shared" ref="D49:D56" si="4">_xlfn.CONCAT(C49,"_",B49)</f>
+        <v>ASC4_3</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>11</v>
@@ -2057,13 +2064,13 @@
         <v>15</v>
       </c>
       <c r="H49" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="I49" s="2">
-        <v>-3</v>
+        <v>3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7.5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2071,14 +2078,14 @@
         <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>ASC4_2</v>
+        <v>ASC4_3</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
@@ -2090,26 +2097,47 @@
         <v>15</v>
       </c>
       <c r="H50" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I50" s="1">
-        <v>-7.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="I50" s="2">
+        <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ASC4_3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2119,10 +2147,10 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>_xlfn.CONCAT(C52,"_",B52)</f>
+        <f t="shared" si="4"/>
         <v>ASC4_3</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2132,16 +2160,16 @@
         <v>12</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="1">
-        <v>7.5</v>
+        <v>15</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-0.5</v>
       </c>
       <c r="I52" s="2">
-        <v>1000</v>
+        <v>0.5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2152,10 +2180,10 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f t="shared" ref="D53:D60" si="5">_xlfn.CONCAT(C53,"_",B53)</f>
+        <f t="shared" si="4"/>
         <v>ASC4_3</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -2165,16 +2193,16 @@
         <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53" s="2">
-        <v>3</v>
-      </c>
-      <c r="I53" s="1">
-        <v>7.5</v>
+        <v>-1.5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>-0.5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2185,10 +2213,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ASC4_3</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2198,16 +2226,16 @@
         <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" s="2">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="I54" s="2">
-        <v>3</v>
+        <v>-1.5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,10 +2246,10 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ASC4_3</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2231,16 +2259,16 @@
         <v>12</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="2">
-        <v>0.5</v>
+        <v>-7.5</v>
       </c>
       <c r="I55" s="2">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2251,10 +2279,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>ASC4_3</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -2264,152 +2292,21 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.5</v>
+        <v>-1000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-7.5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1">
-        <v>3</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ASC4_3</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="I57" s="2">
-        <v>-0.5</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ASC4_3</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="2">
-        <v>-3</v>
-      </c>
-      <c r="I58" s="2">
-        <v>-1.5</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ASC4_3</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="I59" s="2">
-        <v>-3</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>ASC4_3</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="I60" s="1">
-        <v>-7.5</v>
-      </c>
-      <c r="J60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 OFFICIAL</oddFooter>

--- a/src/lib/ASC_dynamic_template.xlsx
+++ b/src/lib/ASC_dynamic_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tim.kershaw\oflog-automated-text\src\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C4727-1618-4632-94D0-483021F07EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04AEEA3-852D-408F-8204-0B561E390B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14505" xr2:uid="{D19ADD91-E08A-4880-A6B4-AC16BCE7FEC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="46">
   <si>
     <t>topic</t>
   </si>
@@ -240,6 +240,24 @@
       </rPr>
       <t xml:space="preserve"> |$place|’s comparison group, where |@ASC4_nnMedian|% of unpaid carers said it was easy. It is |$ASC4_2| than the average for England (|^ASC4_englandMedian|%).</t>
     </r>
+  </si>
+  <si>
+    <t>much better than</t>
+  </si>
+  <si>
+    <t>better than</t>
+  </si>
+  <si>
+    <t>slightly better than</t>
+  </si>
+  <si>
+    <t>slightly worse than</t>
+  </si>
+  <si>
+    <t>worse than</t>
+  </si>
+  <si>
+    <t>much worse than</t>
   </si>
 </sst>
 </file>
@@ -644,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0000E9-2B9C-48FF-98BB-322E6A2B8C83}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +796,7 @@
         <v>7.5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -811,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -844,7 +862,7 @@
         <v>1.5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,7 +928,7 @@
         <v>-0.5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -943,7 +961,7 @@
         <v>-1.5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -976,7 +994,7 @@
         <v>-3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,7 +1119,7 @@
         <v>7.5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1134,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1167,7 +1185,7 @@
         <v>1.5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1200,7 +1218,7 @@
         <v>0.5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1233,7 +1251,7 @@
         <v>-0.5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,7 +1284,7 @@
         <v>-1.5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1299,7 +1317,7 @@
         <v>-3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
